--- a/fax/NOV'18_month.xlsx
+++ b/fax/NOV'18_month.xlsx
@@ -1,37 +1,502 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="45" windowWidth="22995" windowHeight="10035"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="6705"/>
   </bookViews>
   <sheets>
-    <sheet name="Plan1" sheetId="1" r:id="rId1"/>
-    <sheet name="Plan2" sheetId="2" r:id="rId2"/>
-    <sheet name="Plan3" sheetId="3" r:id="rId3"/>
+    <sheet name="sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="122">
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Row
+Status</t>
+  </si>
+  <si>
+    <t>Copy</t>
+  </si>
+  <si>
+    <t>DQMS</t>
+  </si>
+  <si>
+    <t>Approved</t>
+  </si>
+  <si>
+    <t>Seq.</t>
+  </si>
+  <si>
+    <t>Part No</t>
+  </si>
+  <si>
+    <t>Class
+Name</t>
+  </si>
+  <si>
+    <t>Supplier
+Code</t>
+  </si>
+  <si>
+    <t>Supplier
+Name</t>
+  </si>
+  <si>
+    <t>Inspection
+Type</t>
+  </si>
+  <si>
+    <t>Risk
+Level</t>
+  </si>
+  <si>
+    <t>copy</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>CN000081</t>
+  </si>
+  <si>
+    <t>MP</t>
+  </si>
+  <si>
+    <t>High</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3041A20072W</t>
+  </si>
+  <si>
+    <t>Base Assembly,Outdoor</t>
+  </si>
+  <si>
+    <t>BR008197</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>BR001480</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>Valve,Service</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>5220AR3228D</t>
+  </si>
+  <si>
+    <t>Valve,Reverse</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>Insulator</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>ABW74292505</t>
+  </si>
+  <si>
+    <t>Chassis Assembly</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>ADP73193304</t>
+  </si>
+  <si>
+    <t>BR001203</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>ADP73953505</t>
+  </si>
+  <si>
+    <t>Fan Assembly,Cross Flow</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>Grille Assembly,Discharge(Indoor)</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>Grille Assembly,Front(Indoor)</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>Panel Assembly Front(Outdoor)</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>Tube Assembly,Reverse</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>Tube Assembly,Tubing</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>Remote Controller Assembly</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>Harness,Multi</t>
+  </si>
+  <si>
+    <t>BR007613</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>EAU41577623</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>EAU62983004</t>
+  </si>
+  <si>
+    <t>26</t>
+  </si>
+  <si>
+    <t>27</t>
+  </si>
+  <si>
+    <t>28</t>
+  </si>
+  <si>
+    <t>29</t>
+  </si>
+  <si>
+    <t>MAZ62002708</t>
+  </si>
+  <si>
+    <t>Bracket,Motor</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>Decor</t>
+  </si>
+  <si>
+    <t>31</t>
+  </si>
+  <si>
+    <t>32</t>
+  </si>
+  <si>
+    <t>MDX56988301</t>
+  </si>
+  <si>
+    <t>Grille,Rear</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tutiplast </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cover </t>
+  </si>
+  <si>
+    <t>3550A30254A</t>
+  </si>
+  <si>
+    <t>Fan Propeler</t>
+  </si>
+  <si>
+    <t>AEB75085008</t>
+  </si>
+  <si>
+    <t>ACW75497410</t>
+  </si>
+  <si>
+    <t>AEB75005503</t>
+  </si>
+  <si>
+    <t>Damper Butyl</t>
+  </si>
+  <si>
+    <t>7250AR7123E</t>
+  </si>
+  <si>
+    <t>LG ELECTRONICS TIAN JIN APPLIANCES</t>
+  </si>
+  <si>
+    <t>AJR75942605</t>
+  </si>
+  <si>
+    <t>TSE</t>
+  </si>
+  <si>
+    <t>PCB Assembly</t>
+  </si>
+  <si>
+    <t>AGL72992840</t>
+  </si>
+  <si>
+    <t>AKB75215401</t>
+  </si>
+  <si>
+    <t>Plate Assembly,  Installation</t>
+  </si>
+  <si>
+    <t>AGU75208809</t>
+  </si>
+  <si>
+    <t>Reactor, Transformer</t>
+  </si>
+  <si>
+    <t>EBJ62390504</t>
+  </si>
+  <si>
+    <t>AC Motor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gasket </t>
+  </si>
+  <si>
+    <t>MDS64140414</t>
+  </si>
+  <si>
+    <t>MDU61941108</t>
+  </si>
+  <si>
+    <t>Ionizer, Generator</t>
+  </si>
+  <si>
+    <t>Case Assembly,Control (Outdoor)</t>
+  </si>
+  <si>
+    <t>ABQ76860702</t>
+  </si>
+  <si>
+    <t>Motor Assembly,DC,  Indoor</t>
+  </si>
+  <si>
+    <t>5220A20006J</t>
+  </si>
+  <si>
+    <t>AJR74443118</t>
+  </si>
+  <si>
+    <t>4H00006A</t>
+  </si>
+  <si>
+    <t>Screw</t>
+  </si>
+  <si>
+    <t>EAD64605302</t>
+  </si>
+  <si>
+    <t>I-SHENG</t>
+  </si>
+  <si>
+    <t>Harness Single</t>
+  </si>
+  <si>
+    <t>EAD64486303</t>
+  </si>
+  <si>
+    <t>MEV47376125</t>
+  </si>
+  <si>
+    <t>Panel,Control</t>
+  </si>
+  <si>
+    <t>Case Assembly,Control (Indoor)</t>
+  </si>
+  <si>
+    <t>MGC62720002</t>
+  </si>
+  <si>
+    <t>ABQ74662302</t>
+  </si>
+  <si>
+    <t>BR001005</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LG ELECTRONICS DO BRASIL </t>
+  </si>
+  <si>
+    <t>EBR85607308</t>
+  </si>
+  <si>
+    <t>MDG62503003</t>
+  </si>
+  <si>
+    <t>Data Inspeção</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="165" formatCode="[$-416]d\-mmm;@"/>
+  </numFmts>
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF333333"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF333333"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF333333"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF333333"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF333333"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF333333"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF333333"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF333333"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF333333"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF333333"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF333333"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD9DBE4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF9F9F9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -46,8 +511,62 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -57,6 +576,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -73,39 +595,39 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="1F497D"/>
+        <a:srgbClr val="44546A"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="EEECE1"/>
+        <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4F81BD"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="C0504D"/>
+        <a:srgbClr val="ED7D31"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="9BBB59"/>
+        <a:srgbClr val="A5A5A5"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="8064A2"/>
+        <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4BACC6"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="F79646"/>
+        <a:srgbClr val="70AD47"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0000FF"/>
+        <a:srgbClr val="0563C1"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="800080"/>
+        <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Escritório">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -140,7 +662,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -184,201 +706,1321 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="50000"/>
-                <a:satMod val="300000"/>
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="35000">
+            <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:tint val="37000"/>
-                <a:satMod val="300000"/>
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="15000"/>
-                <a:satMod val="350000"/>
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:shade val="51000"/>
-                <a:satMod val="130000"/>
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="80000">
+            <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:shade val="93000"/>
-                <a:satMod val="130000"/>
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="94000"/>
-                <a:satMod val="135000"/>
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="0"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr">
-              <a:shade val="95000"/>
-              <a:satMod val="105000"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="38000"/>
+                <a:alpha val="63000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-          <a:scene3d>
-            <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
-            </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
-            </a:lightRig>
-          </a:scene3d>
-          <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
-          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="40000"/>
-                <a:satMod val="350000"/>
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="40000">
+            <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:tint val="45000"/>
-                <a:shade val="99000"/>
-                <a:satMod val="350000"/>
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="20000"/>
-                <a:satMod val="255000"/>
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
-          </a:path>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="80000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="30000"/>
-                <a:satMod val="200000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-          </a:path>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:N37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="H1" sqref="H1:H2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <cols>
+    <col min="1" max="1" width="3.5703125" customWidth="1"/>
+    <col min="2" max="2" width="5.28515625" customWidth="1"/>
+    <col min="3" max="3" width="7" customWidth="1"/>
+    <col min="4" max="4" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="12.28515625" customWidth="1"/>
+    <col min="9" max="9" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="35.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="37.140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="6.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1"/>
+      <c r="B1" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="17" t="s">
+        <v>121</v>
+      </c>
+      <c r="I1" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="L1" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="M1" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2"/>
+      <c r="B2" s="16"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="16"/>
+      <c r="H2" s="16"/>
+      <c r="I2" s="16"/>
+      <c r="J2" s="16"/>
+      <c r="K2" s="16"/>
+      <c r="L2" s="16"/>
+      <c r="M2" s="16"/>
+      <c r="N2" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="3"/>
+      <c r="B3" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="18">
+        <v>43405</v>
+      </c>
+      <c r="I3" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="J3" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="K3" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="L3" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="M3" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="N3" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="4"/>
+      <c r="B4" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="18">
+        <v>43405</v>
+      </c>
+      <c r="I4" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="J4" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="K4" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="L4" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="M4" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="N4" s="10" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="3"/>
+      <c r="B5" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="15"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="18">
+        <v>43405</v>
+      </c>
+      <c r="I5" s="14" t="s">
+        <v>120</v>
+      </c>
+      <c r="J5" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="K5" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="L5" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="M5" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="N5" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="4"/>
+      <c r="B6" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="18">
+        <v>43405</v>
+      </c>
+      <c r="I6" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="J6" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="K6" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="L6" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="M6" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="N6" s="10" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="3"/>
+      <c r="B7" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="18">
+        <v>43409</v>
+      </c>
+      <c r="I7" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="J7" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="K7" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="L7" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="M7" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="N7" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="4"/>
+      <c r="B8" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="18">
+        <v>43410</v>
+      </c>
+      <c r="I8" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="J8" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="K8" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="L8" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="M8" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="N8" s="10" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="3"/>
+      <c r="B9" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="18">
+        <v>43410</v>
+      </c>
+      <c r="I9" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="J9" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="K9" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="L9" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="M9" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="N9" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="4"/>
+      <c r="B10" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="18">
+        <v>43410</v>
+      </c>
+      <c r="I10" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="J10" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="K10" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="L10" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="M10" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="N10" s="10" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="3"/>
+      <c r="B11" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="18">
+        <v>43411</v>
+      </c>
+      <c r="I11" s="14" t="s">
+        <v>87</v>
+      </c>
+      <c r="J11" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="K11" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="L11" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="M11" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="N11" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="4"/>
+      <c r="B12" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="18">
+        <v>43414</v>
+      </c>
+      <c r="I12" s="12" t="s">
+        <v>119</v>
+      </c>
+      <c r="J12" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="K12" s="12" t="s">
+        <v>117</v>
+      </c>
+      <c r="L12" s="12" t="s">
+        <v>118</v>
+      </c>
+      <c r="M12" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="N12" s="10" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="3"/>
+      <c r="B13" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="18">
+        <v>43414</v>
+      </c>
+      <c r="I13" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="J13" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="K13" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="L13" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="M13" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="N13" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="4"/>
+      <c r="B14" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="18">
+        <v>43414</v>
+      </c>
+      <c r="I14" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="J14" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="K14" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="L14" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="M14" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="N14" s="10" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="3"/>
+      <c r="B15" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="18">
+        <v>43415</v>
+      </c>
+      <c r="I15" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="J15" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="K15" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="L15" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="M15" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="N15" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="4"/>
+      <c r="B16" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="8"/>
+      <c r="H16" s="18">
+        <v>43416</v>
+      </c>
+      <c r="I16" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="J16" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="K16" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="L16" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="M16" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="N16" s="10" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="3"/>
+      <c r="B17" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="7"/>
+      <c r="H17" s="18">
+        <v>43417</v>
+      </c>
+      <c r="I17" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="J17" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="K17" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="L17" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="M17" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="N17" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="4"/>
+      <c r="B18" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="C18" s="4"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="6"/>
+      <c r="F18" s="6"/>
+      <c r="G18" s="8"/>
+      <c r="H18" s="18">
+        <v>43418</v>
+      </c>
+      <c r="I18" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="J18" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="K18" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="L18" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="M18" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="N18" s="10" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="3"/>
+      <c r="B19" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="7"/>
+      <c r="H19" s="18">
+        <v>43421</v>
+      </c>
+      <c r="I19" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="J19" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="K19" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="L19" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="M19" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="N19" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="4"/>
+      <c r="B20" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="C20" s="4"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="6"/>
+      <c r="F20" s="6"/>
+      <c r="G20" s="8"/>
+      <c r="H20" s="18">
+        <v>43421</v>
+      </c>
+      <c r="I20" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="J20" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="K20" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="L20" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="M20" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="N20" s="10" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="3"/>
+      <c r="B21" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="7"/>
+      <c r="H21" s="18">
+        <v>43421</v>
+      </c>
+      <c r="I21" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="J21" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="K21" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="L21" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="M21" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="N21" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="4"/>
+      <c r="B22" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="C22" s="4"/>
+      <c r="D22" s="4"/>
+      <c r="E22" s="6"/>
+      <c r="F22" s="6"/>
+      <c r="G22" s="8"/>
+      <c r="H22" s="18">
+        <v>43422</v>
+      </c>
+      <c r="I22" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="J22" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="K22" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="L22" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="M22" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="N22" s="10" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="3"/>
+      <c r="B23" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="5"/>
+      <c r="F23" s="5"/>
+      <c r="G23" s="7"/>
+      <c r="H23" s="18">
+        <v>43423</v>
+      </c>
+      <c r="I23" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="J23" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="K23" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="L23" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="M23" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="N23" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="4"/>
+      <c r="B24" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="C24" s="4"/>
+      <c r="D24" s="4"/>
+      <c r="E24" s="6"/>
+      <c r="F24" s="6"/>
+      <c r="G24" s="8"/>
+      <c r="H24" s="18">
+        <v>43424</v>
+      </c>
+      <c r="I24" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="J24" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="K24" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="L24" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="M24" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="N24" s="10" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="3"/>
+      <c r="B25" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="5"/>
+      <c r="F25" s="5"/>
+      <c r="G25" s="7"/>
+      <c r="H25" s="18">
+        <v>43427</v>
+      </c>
+      <c r="I25" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="J25" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="K25" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="L25" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="M25" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="N25" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="4"/>
+      <c r="B26" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="C26" s="4"/>
+      <c r="D26" s="4"/>
+      <c r="E26" s="6"/>
+      <c r="F26" s="6"/>
+      <c r="G26" s="8"/>
+      <c r="H26" s="18">
+        <v>43427</v>
+      </c>
+      <c r="I26" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="J26" s="12" t="s">
+        <v>107</v>
+      </c>
+      <c r="K26" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="L26" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="M26" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="N26" s="10" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="3"/>
+      <c r="B27" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="5"/>
+      <c r="F27" s="5"/>
+      <c r="G27" s="7"/>
+      <c r="H27" s="18">
+        <v>43427</v>
+      </c>
+      <c r="I27" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="J27" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="K27" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="L27" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="M27" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="N27" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="4"/>
+      <c r="B28" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="C28" s="4"/>
+      <c r="D28" s="4"/>
+      <c r="E28" s="6"/>
+      <c r="F28" s="6"/>
+      <c r="G28" s="8"/>
+      <c r="H28" s="18">
+        <v>43428</v>
+      </c>
+      <c r="I28" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="J28" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="K28" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="L28" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="M28" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="N28" s="10" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="3"/>
+      <c r="B29" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="5"/>
+      <c r="F29" s="5"/>
+      <c r="G29" s="7"/>
+      <c r="H29" s="18">
+        <v>43429</v>
+      </c>
+      <c r="I29" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="J29" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="K29" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="L29" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="M29" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="N29" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="4"/>
+      <c r="B30" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="C30" s="4"/>
+      <c r="D30" s="4"/>
+      <c r="E30" s="6"/>
+      <c r="F30" s="6"/>
+      <c r="G30" s="8"/>
+      <c r="H30" s="18">
+        <v>43433</v>
+      </c>
+      <c r="I30" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="J30" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="K30" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="L30" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="M30" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="N30" s="10" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="3"/>
+      <c r="B31" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="C31" s="3"/>
+      <c r="D31" s="3"/>
+      <c r="E31" s="5"/>
+      <c r="F31" s="5"/>
+      <c r="G31" s="7"/>
+      <c r="H31" s="18">
+        <v>43433</v>
+      </c>
+      <c r="I31" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="J31" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="K31" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="L31" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="M31" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="N31" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="4"/>
+      <c r="B32" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="C32" s="4"/>
+      <c r="D32" s="4"/>
+      <c r="E32" s="6"/>
+      <c r="F32" s="6"/>
+      <c r="G32" s="8"/>
+      <c r="H32" s="18">
+        <v>43433</v>
+      </c>
+      <c r="I32" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="J32" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="K32" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="L32" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="M32" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="N32" s="10" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="3"/>
+      <c r="B33" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="C33" s="3"/>
+      <c r="D33" s="3"/>
+      <c r="E33" s="5"/>
+      <c r="F33" s="5"/>
+      <c r="G33" s="7"/>
+      <c r="H33" s="18">
+        <v>43434</v>
+      </c>
+      <c r="I33" s="11" t="s">
+        <v>115</v>
+      </c>
+      <c r="J33" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="K33" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="L33" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="M33" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="N33" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="4"/>
+      <c r="B34" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="C34" s="4"/>
+      <c r="D34" s="4"/>
+      <c r="E34" s="6"/>
+      <c r="F34" s="6"/>
+      <c r="G34" s="8"/>
+      <c r="H34" s="18">
+        <v>43434</v>
+      </c>
+      <c r="I34" s="12" t="s">
+        <v>116</v>
+      </c>
+      <c r="J34" s="12" t="s">
+        <v>114</v>
+      </c>
+      <c r="K34" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="L34" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="M34" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="N34" s="10" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="3"/>
+      <c r="B35" s="5"/>
+      <c r="C35" s="3"/>
+      <c r="D35" s="3"/>
+      <c r="E35" s="5"/>
+      <c r="F35" s="5"/>
+      <c r="G35" s="7"/>
+      <c r="H35" s="7"/>
+      <c r="I35" s="7"/>
+      <c r="J35" s="7"/>
+      <c r="K35" s="7"/>
+      <c r="L35" s="7"/>
+      <c r="M35" s="9"/>
+      <c r="N35" s="9"/>
+    </row>
+    <row r="36" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="4"/>
+      <c r="B36" s="6"/>
+      <c r="C36" s="4"/>
+      <c r="D36" s="4"/>
+      <c r="E36" s="6"/>
+      <c r="F36" s="6"/>
+      <c r="G36" s="8"/>
+      <c r="H36" s="8"/>
+      <c r="I36" s="8"/>
+      <c r="J36" s="8"/>
+      <c r="K36" s="8"/>
+      <c r="L36" s="8"/>
+      <c r="M36" s="10"/>
+      <c r="N36" s="10"/>
+    </row>
+    <row r="37" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="3"/>
+      <c r="B37" s="5"/>
+      <c r="C37" s="3"/>
+      <c r="D37" s="3"/>
+      <c r="E37" s="5"/>
+      <c r="F37" s="5"/>
+      <c r="G37" s="7"/>
+      <c r="H37" s="7"/>
+      <c r="I37" s="7"/>
+      <c r="J37" s="7"/>
+      <c r="K37" s="7"/>
+      <c r="L37" s="7"/>
+      <c r="M37" s="9"/>
+      <c r="N37" s="9"/>
+    </row>
+  </sheetData>
+  <mergeCells count="12">
+    <mergeCell ref="M1:M2"/>
+    <mergeCell ref="G1:G2"/>
+    <mergeCell ref="I1:I2"/>
+    <mergeCell ref="J1:J2"/>
+    <mergeCell ref="K1:K2"/>
+    <mergeCell ref="L1:L2"/>
+    <mergeCell ref="H1:H2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="F1:F2"/>
+  </mergeCells>
+  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" scale="74" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
--- a/fax/NOV'18_month.xlsx
+++ b/fax/NOV'18_month.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jonat\Documents\NetBeansProjects\XRFSlave\fax\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5DBAE8D-B13D-4315-8EED-173BD3E28728}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="6705"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="6705" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sheet1" sheetId="1" r:id="rId1"/>
@@ -391,9 +397,9 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-416]d\-mmm;@"/>
+    <numFmt numFmtId="164" formatCode="[$-416]d\-mmm;@"/>
   </numFmts>
   <fonts count="12" x14ac:knownFonts="1">
     <font>
@@ -558,14 +564,14 @@
     <xf numFmtId="49" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -839,14 +845,14 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -875,40 +881,40 @@
   <sheetData>
     <row r="1" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="C1" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="16" t="s">
+      <c r="D1" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="16" t="s">
+      <c r="E1" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="16" t="s">
+      <c r="F1" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="16" t="s">
+      <c r="G1" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="17" t="s">
+      <c r="H1" s="18" t="s">
         <v>121</v>
       </c>
-      <c r="I1" s="16" t="s">
+      <c r="I1" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="16" t="s">
+      <c r="J1" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="16" t="s">
+      <c r="K1" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="L1" s="16" t="s">
+      <c r="L1" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="M1" s="16" t="s">
+      <c r="M1" s="17" t="s">
         <v>10</v>
       </c>
       <c r="N1" s="2" t="s">
@@ -917,18 +923,18 @@
     </row>
     <row r="2" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
-      <c r="B2" s="16"/>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="16"/>
-      <c r="G2" s="16"/>
-      <c r="H2" s="16"/>
-      <c r="I2" s="16"/>
-      <c r="J2" s="16"/>
-      <c r="K2" s="16"/>
-      <c r="L2" s="16"/>
-      <c r="M2" s="16"/>
+      <c r="B2" s="17"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="17"/>
+      <c r="H2" s="17"/>
+      <c r="I2" s="17"/>
+      <c r="J2" s="17"/>
+      <c r="K2" s="17"/>
+      <c r="L2" s="17"/>
+      <c r="M2" s="17"/>
       <c r="N2" s="1" t="s">
         <v>12</v>
       </c>
@@ -943,7 +949,7 @@
       <c r="E3" s="5"/>
       <c r="F3" s="5"/>
       <c r="G3" s="7"/>
-      <c r="H3" s="18">
+      <c r="H3" s="16">
         <v>43405</v>
       </c>
       <c r="I3" s="14" t="s">
@@ -975,7 +981,7 @@
       <c r="E4" s="6"/>
       <c r="F4" s="6"/>
       <c r="G4" s="8"/>
-      <c r="H4" s="18">
+      <c r="H4" s="16">
         <v>43405</v>
       </c>
       <c r="I4" s="14" t="s">
@@ -1007,7 +1013,7 @@
       <c r="E5" s="5"/>
       <c r="F5" s="15"/>
       <c r="G5" s="7"/>
-      <c r="H5" s="18">
+      <c r="H5" s="16">
         <v>43405</v>
       </c>
       <c r="I5" s="14" t="s">
@@ -1039,7 +1045,7 @@
       <c r="E6" s="6"/>
       <c r="F6" s="6"/>
       <c r="G6" s="8"/>
-      <c r="H6" s="18">
+      <c r="H6" s="16">
         <v>43405</v>
       </c>
       <c r="I6" s="14" t="s">
@@ -1071,7 +1077,7 @@
       <c r="E7" s="5"/>
       <c r="F7" s="5"/>
       <c r="G7" s="7"/>
-      <c r="H7" s="18">
+      <c r="H7" s="16">
         <v>43409</v>
       </c>
       <c r="I7" s="14" t="s">
@@ -1103,7 +1109,7 @@
       <c r="E8" s="6"/>
       <c r="F8" s="6"/>
       <c r="G8" s="8"/>
-      <c r="H8" s="18">
+      <c r="H8" s="16">
         <v>43410</v>
       </c>
       <c r="I8" s="14" t="s">
@@ -1135,7 +1141,7 @@
       <c r="E9" s="5"/>
       <c r="F9" s="5"/>
       <c r="G9" s="7"/>
-      <c r="H9" s="18">
+      <c r="H9" s="16">
         <v>43410</v>
       </c>
       <c r="I9" s="14" t="s">
@@ -1167,7 +1173,7 @@
       <c r="E10" s="6"/>
       <c r="F10" s="6"/>
       <c r="G10" s="8"/>
-      <c r="H10" s="18">
+      <c r="H10" s="16">
         <v>43410</v>
       </c>
       <c r="I10" s="12" t="s">
@@ -1199,7 +1205,7 @@
       <c r="E11" s="5"/>
       <c r="F11" s="5"/>
       <c r="G11" s="7"/>
-      <c r="H11" s="18">
+      <c r="H11" s="16">
         <v>43411</v>
       </c>
       <c r="I11" s="14" t="s">
@@ -1231,7 +1237,7 @@
       <c r="E12" s="6"/>
       <c r="F12" s="6"/>
       <c r="G12" s="8"/>
-      <c r="H12" s="18">
+      <c r="H12" s="16">
         <v>43414</v>
       </c>
       <c r="I12" s="12" t="s">
@@ -1263,7 +1269,7 @@
       <c r="E13" s="5"/>
       <c r="F13" s="5"/>
       <c r="G13" s="7"/>
-      <c r="H13" s="18">
+      <c r="H13" s="16">
         <v>43414</v>
       </c>
       <c r="I13" s="14" t="s">
@@ -1295,7 +1301,7 @@
       <c r="E14" s="6"/>
       <c r="F14" s="6"/>
       <c r="G14" s="8"/>
-      <c r="H14" s="18">
+      <c r="H14" s="16">
         <v>43414</v>
       </c>
       <c r="I14" s="14" t="s">
@@ -1327,7 +1333,7 @@
       <c r="E15" s="5"/>
       <c r="F15" s="5"/>
       <c r="G15" s="7"/>
-      <c r="H15" s="18">
+      <c r="H15" s="16">
         <v>43415</v>
       </c>
       <c r="I15" s="11" t="s">
@@ -1359,7 +1365,7 @@
       <c r="E16" s="6"/>
       <c r="F16" s="6"/>
       <c r="G16" s="8"/>
-      <c r="H16" s="18">
+      <c r="H16" s="16">
         <v>43416</v>
       </c>
       <c r="I16" s="12" t="s">
@@ -1391,7 +1397,7 @@
       <c r="E17" s="5"/>
       <c r="F17" s="5"/>
       <c r="G17" s="7"/>
-      <c r="H17" s="18">
+      <c r="H17" s="16">
         <v>43417</v>
       </c>
       <c r="I17" s="14" t="s">
@@ -1423,7 +1429,7 @@
       <c r="E18" s="6"/>
       <c r="F18" s="6"/>
       <c r="G18" s="8"/>
-      <c r="H18" s="18">
+      <c r="H18" s="16">
         <v>43418</v>
       </c>
       <c r="I18" s="12" t="s">
@@ -1455,7 +1461,7 @@
       <c r="E19" s="5"/>
       <c r="F19" s="5"/>
       <c r="G19" s="7"/>
-      <c r="H19" s="18">
+      <c r="H19" s="16">
         <v>43421</v>
       </c>
       <c r="I19" s="11" t="s">
@@ -1487,7 +1493,7 @@
       <c r="E20" s="6"/>
       <c r="F20" s="6"/>
       <c r="G20" s="8"/>
-      <c r="H20" s="18">
+      <c r="H20" s="16">
         <v>43421</v>
       </c>
       <c r="I20" s="12" t="s">
@@ -1519,7 +1525,7 @@
       <c r="E21" s="5"/>
       <c r="F21" s="5"/>
       <c r="G21" s="7"/>
-      <c r="H21" s="18">
+      <c r="H21" s="16">
         <v>43421</v>
       </c>
       <c r="I21" s="11" t="s">
@@ -1551,7 +1557,7 @@
       <c r="E22" s="6"/>
       <c r="F22" s="6"/>
       <c r="G22" s="8"/>
-      <c r="H22" s="18">
+      <c r="H22" s="16">
         <v>43422</v>
       </c>
       <c r="I22" s="14" t="s">
@@ -1583,7 +1589,7 @@
       <c r="E23" s="5"/>
       <c r="F23" s="5"/>
       <c r="G23" s="7"/>
-      <c r="H23" s="18">
+      <c r="H23" s="16">
         <v>43423</v>
       </c>
       <c r="I23" s="14" t="s">
@@ -1615,7 +1621,7 @@
       <c r="E24" s="6"/>
       <c r="F24" s="6"/>
       <c r="G24" s="8"/>
-      <c r="H24" s="18">
+      <c r="H24" s="16">
         <v>43424</v>
       </c>
       <c r="I24" s="12" t="s">
@@ -1647,7 +1653,7 @@
       <c r="E25" s="5"/>
       <c r="F25" s="5"/>
       <c r="G25" s="7"/>
-      <c r="H25" s="18">
+      <c r="H25" s="16">
         <v>43427</v>
       </c>
       <c r="I25" s="11" t="s">
@@ -1679,7 +1685,7 @@
       <c r="E26" s="6"/>
       <c r="F26" s="6"/>
       <c r="G26" s="8"/>
-      <c r="H26" s="18">
+      <c r="H26" s="16">
         <v>43427</v>
       </c>
       <c r="I26" s="12" t="s">
@@ -1711,7 +1717,7 @@
       <c r="E27" s="5"/>
       <c r="F27" s="5"/>
       <c r="G27" s="7"/>
-      <c r="H27" s="18">
+      <c r="H27" s="16">
         <v>43427</v>
       </c>
       <c r="I27" s="11" t="s">
@@ -1743,7 +1749,7 @@
       <c r="E28" s="6"/>
       <c r="F28" s="6"/>
       <c r="G28" s="8"/>
-      <c r="H28" s="18">
+      <c r="H28" s="16">
         <v>43428</v>
       </c>
       <c r="I28" s="14" t="s">
@@ -1775,7 +1781,7 @@
       <c r="E29" s="5"/>
       <c r="F29" s="5"/>
       <c r="G29" s="7"/>
-      <c r="H29" s="18">
+      <c r="H29" s="16">
         <v>43429</v>
       </c>
       <c r="I29" s="11" t="s">
@@ -1807,7 +1813,7 @@
       <c r="E30" s="6"/>
       <c r="F30" s="6"/>
       <c r="G30" s="8"/>
-      <c r="H30" s="18">
+      <c r="H30" s="16">
         <v>43433</v>
       </c>
       <c r="I30" s="12" t="s">
@@ -1839,7 +1845,7 @@
       <c r="E31" s="5"/>
       <c r="F31" s="5"/>
       <c r="G31" s="7"/>
-      <c r="H31" s="18">
+      <c r="H31" s="16">
         <v>43433</v>
       </c>
       <c r="I31" s="14" t="s">
@@ -1871,7 +1877,7 @@
       <c r="E32" s="6"/>
       <c r="F32" s="6"/>
       <c r="G32" s="8"/>
-      <c r="H32" s="18">
+      <c r="H32" s="16">
         <v>43433</v>
       </c>
       <c r="I32" s="14" t="s">
@@ -1903,7 +1909,7 @@
       <c r="E33" s="5"/>
       <c r="F33" s="5"/>
       <c r="G33" s="7"/>
-      <c r="H33" s="18">
+      <c r="H33" s="16">
         <v>43434</v>
       </c>
       <c r="I33" s="11" t="s">
@@ -1935,7 +1941,7 @@
       <c r="E34" s="6"/>
       <c r="F34" s="6"/>
       <c r="G34" s="8"/>
-      <c r="H34" s="18">
+      <c r="H34" s="16">
         <v>43434</v>
       </c>
       <c r="I34" s="12" t="s">
